--- a/biology/Botanique/Allosorus_pteridioides/Allosorus_pteridioides.xlsx
+++ b/biology/Botanique/Allosorus_pteridioides/Allosorus_pteridioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheilanthes pteridioides, le Cheilanthès de Madère, est une espèce de fougères de la famille des Pteridaceae et du genre Cheilanthes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cheilanthes pteridioides possède des feuilles de 5 à 20 cm, vert sombre, à long pétiole brun-rouge portant des écailles membraneuses espacées. Le limbe est en triangle allongé, à face inférieure glabre ou presque. Sores ± arrondis, disposés à l'extrémité des nervures et ± recouverts par la marge foliaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cheilanthes pteridioides possède des feuilles de 5 à 20 cm, vert sombre, à long pétiole brun-rouge portant des écailles membraneuses espacées. Le limbe est en triangle allongé, à face inférieure glabre ou presque. Sores ± arrondis, disposés à l'extrémité des nervures et ± recouverts par la marge foliaire.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est une espèce présente dans la région méditerranéenne du Portugal à l'Italie, mais également aux Açores, à Madère, dans les îles Canaries, en Corse, en Sardaigne et en Sicile[3]
-Elle est également présente en Algérie[4] et au Maroc[5], où elle pousse dans les fissures des rochers[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est une espèce présente dans la région méditerranéenne du Portugal à l'Italie, mais également aux Açores, à Madère, dans les îles Canaries, en Corse, en Sardaigne et en Sicile
+Elle est également présente en Algérie et au Maroc, où elle pousse dans les fissures des rochers :
 au Sahara septentrional, dans la région prédésertique : Anti-Atlas, Atlas saharien, Bou-Saada,
 et dans le Sahara central, dans le Hoggar et le Tibesti.</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est protégée en Algérie[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est protégée en Algérie.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette liste de synonymes[Note 1] est extraite de la Base de données des plantes d'Afrique (BDPA)                       (4 juin 2013)[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette liste de synonymes[Note 1] est extraite de la Base de données des plantes d'Afrique (BDPA)                       (4 juin 2013).
 Polypodium pteridioides Reichard (1905)
 Nigripteris quezelii Tardieu
 Cheilanthes pteridioides var. maderensis (Lowe) Braun-Blanq. &amp; Maire
